--- a/biology/Zoologie/Ceroma_johnstonii/Ceroma_johnstonii.xlsx
+++ b/biology/Zoologie/Ceroma_johnstonii/Ceroma_johnstonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceroma johnstonii est une espèce de solifuges de la famille des Ceromidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Malawi[1]. Elle se rencontre sur le plateau Nyika.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Malawi. Elle se rencontre sur le plateau Nyika.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 16 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 16 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Harry Johnston[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Harry Johnston.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pocock, 1897 : On the genera and species of tropical African arachnids of the order Solifugae with notes upon the taxonomy and habits of the group. The Annals and Magazine of Natural History, sér. 6, vol. 20, p. 249-272 (texte intégral).</t>
         </is>
